--- a/data/trans_bre/CoPsoQ_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CoPsoQ_R2-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-26.27626485674218</v>
+        <v>-26.40433547148598</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.81336780705452</v>
+        <v>-15.5909535055181</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.063590643235828</v>
+        <v>2.608238480835826</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4726685005186667</v>
+        <v>-0.4679974686481329</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3136167010444511</v>
+        <v>-0.2927225324214585</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01206070710170047</v>
+        <v>0.04446564497654578</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.589151648571003</v>
+        <v>-2.920229663735344</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.52302413957043</v>
+        <v>13.57287617867927</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51.75112447000642</v>
+        <v>50.34404493687755</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.05806938942482533</v>
+        <v>-0.05820398913338851</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3177246963241223</v>
+        <v>0.3230855665713239</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.579751544237602</v>
+        <v>3.429429536591593</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>1.701220132158954</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6.624810759458483</v>
+        <v>6.624810759458477</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.0106271722091039</v>
@@ -709,7 +709,7 @@
         <v>0.03085206733040037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.160108167399877</v>
+        <v>0.1601081673998769</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.929054002664618</v>
+        <v>-5.579644755512443</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.646638332991385</v>
+        <v>-2.855846329053279</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.791668244630663</v>
+        <v>-1.787954529987951</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.09976874425159719</v>
+        <v>-0.09529334192008024</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06284009635091532</v>
+        <v>-0.04954527735675376</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.05293404386695655</v>
+        <v>-0.03867263161735941</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.014041444886795</v>
+        <v>5.141982069821664</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.034250223985632</v>
+        <v>7.571096299944053</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.8707288576568</v>
+        <v>16.18807345875556</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.09017477652851179</v>
+        <v>0.09206445666162164</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1324948066013005</v>
+        <v>0.1415433025955491</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4473531417470588</v>
+        <v>0.4574032232651277</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.43766364752544</v>
+        <v>-15.4999675233635</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.81572169003007</v>
+        <v>-11.68014996288088</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.93252779052172</v>
+        <v>-12.03369440932619</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2128578285578747</v>
+        <v>-0.2295991792116157</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1947559932125495</v>
+        <v>-0.1940949007162537</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2504909021710116</v>
+        <v>-0.2553353946030045</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.074478299483011</v>
+        <v>3.228834208409956</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.854750076189422</v>
+        <v>5.039951244385478</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.61565786139234</v>
+        <v>13.90959539364292</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.04954499674436112</v>
+        <v>0.05030108852917275</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07197707789031552</v>
+        <v>0.09437476508575934</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4582624212453149</v>
+        <v>0.4476556806848453</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.2041688203085812</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.51849649248647</v>
+        <v>6.518496492486459</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.06671309890062563</v>
@@ -873,7 +873,7 @@
         <v>0.003720231749584645</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1647178287644056</v>
+        <v>0.1647178287644053</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-8.237599399447848</v>
+        <v>-8.126439040042706</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.6953090336499</v>
+        <v>-3.82132944757724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.4245222562964828</v>
+        <v>-0.5607162225481547</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1392246572805433</v>
+        <v>-0.1359844250944876</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06580353755285227</v>
+        <v>-0.06860022959686338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.009615425956504975</v>
+        <v>-0.01858449258058129</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4397406461650025</v>
+        <v>0.8731858209910311</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.563348197955365</v>
+        <v>3.93269097054641</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.48006350117659</v>
+        <v>12.6985019409343</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.00773479442512581</v>
+        <v>0.01642298737829843</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08668652905713906</v>
+        <v>0.07275625692528802</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3748876545326136</v>
+        <v>0.3482834282272689</v>
       </c>
     </row>
     <row r="16">
